--- a/data/EPA_AMPD/RGGI_2_NYCA_2019.xlsx
+++ b/data/EPA_AMPD/RGGI_2_NYCA_2019.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\EPA_AMPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\ny_academic_model\data\EPA_AMPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731A853-4123-48F2-85E6-21BA3083E202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0933EFF-EB34-4ECC-91C7-4DD67D95549A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23C0391A-A677-4E73-9821-74A5284D3F3E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{23C0391A-A677-4E73-9821-74A5284D3F3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$184</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1286,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1312,6 +1315,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -1640,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7382986-395C-4514-92BA-4FC69FBA2940}">
   <dimension ref="A1:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2177,7 +2181,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="3">
@@ -2224,7 +2228,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="3">
@@ -2271,7 +2275,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="3">
@@ -2318,7 +2322,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="3">
@@ -2459,7 +2463,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="3">
@@ -3211,7 +3215,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="3">
@@ -3258,7 +3262,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B35" s="3">
@@ -3305,7 +3309,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="23" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="3">
@@ -3352,7 +3356,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="3">
@@ -10318,6 +10322,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O184" xr:uid="{3A980CF2-4416-4CE2-99C3-22B86C3841B1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>